--- a/Ludhiana.xlsx
+++ b/Ludhiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\html\GitHub\Panchangam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD7A1B4-B772-454C-B7B3-F14ED53E8969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C467B7-4E6C-4FB1-93F9-CA39A042317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{A64854B0-650A-4542-8489-1897C8F76F4B}"/>
   </bookViews>
@@ -3302,8 +3302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026ED572-2D2C-46AC-837F-0A51644E11E5}">
   <dimension ref="A1:Q427"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E429" sqref="E429"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3367,7 +3367,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A2" s="6">
         <v>45962</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A3" s="6">
         <v>45963</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" s="6">
         <v>45964</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" s="6">
         <v>45965</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" s="6">
         <v>45966</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" s="6">
         <v>45967</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" s="6">
         <v>45968</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" s="6">
         <v>45969</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" s="6">
         <v>45970</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" s="6">
         <v>45971</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" s="6">
         <v>45972</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" s="6">
         <v>45973</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A14" s="6">
         <v>45974</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A15" s="6">
         <v>45975</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A16" s="6">
         <v>45976</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A17" s="6">
         <v>45977</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A18" s="6">
         <v>45978</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A19" s="6">
         <v>45979</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A20" s="6">
         <v>45980</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A21" s="6">
         <v>45981</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A22" s="6">
         <v>45982</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A23" s="6">
         <v>45983</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A24" s="6">
         <v>45984</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A25" s="6">
         <v>45985</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A26" s="6">
         <v>45986</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A27" s="6">
         <v>45987</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A28" s="6">
         <v>45988</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A29" s="6">
         <v>45989</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A30" s="6">
         <v>45990</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A31" s="6">
         <v>45991</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A32" s="6">
         <v>45992</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A33" s="6">
         <v>45993</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A34" s="6">
         <v>45994</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A35" s="6">
         <v>45995</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A95" s="6">
         <v>46055</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A96" s="6">
         <v>46056</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A97" s="6">
         <v>46057</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A98" s="6">
         <v>46058</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A99" s="6">
         <v>46059</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A100" s="6">
         <v>46060</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A101" s="6">
         <v>46061</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A102" s="6">
         <v>46062</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A103" s="6">
         <v>46063</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A104" s="6">
         <v>46064</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A105" s="6">
         <v>46065</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A106" s="6">
         <v>46066</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A107" s="6">
         <v>46067</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A108" s="6">
         <v>46068</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A109" s="6">
         <v>46069</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A110" s="6">
         <v>46070</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A111" s="6">
         <v>46071</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A112" s="6">
         <v>46072</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A113" s="6">
         <v>46073</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A114" s="6">
         <v>46074</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A115" s="6">
         <v>46075</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A116" s="6">
         <v>46076</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A117" s="6">
         <v>46077</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A118" s="6">
         <v>46078</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A119" s="6">
         <v>46079</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A120" s="6">
         <v>46080</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A121" s="6">
         <v>46081</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A122" s="6">
         <v>46082</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A123" s="6">
         <v>46083</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="26.5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A124" s="6">
         <v>46084</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>46232</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>24</v>
@@ -19272,7 +19272,7 @@
         <v>46262</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>35</v>
